--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.244</v>
+        <v>0.401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.281</v>
+        <v>0.313</v>
       </c>
       <c r="D4" t="n">
-        <v>15.16</v>
+        <v>-21.95</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.182</v>
+        <v>0.466</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183</v>
+        <v>0.396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.174</v>
+        <v>0.195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213</v>
+        <v>0.178</v>
       </c>
       <c r="D6" t="n">
-        <v>22.41</v>
+        <v>-8.720000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.067102377535775</v>
+        <v>2.254836343461648</v>
       </c>
       <c r="C4" t="n">
-        <v>1.765765096060932</v>
+        <v>1.993254939210601</v>
       </c>
       <c r="D4" t="n">
-        <v>-14.58</v>
+        <v>-11.6</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2316866622169146</v>
+        <v>0.4320123756877457</v>
       </c>
       <c r="F4" t="n">
-        <v>0.219480443734602</v>
+        <v>0.3985886054378469</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.27</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.903</v>
+        <v>42.563</v>
       </c>
       <c r="C5" t="n">
-        <v>10.742</v>
+        <v>10.657</v>
       </c>
       <c r="D5" t="n">
         <v>-74.95999999999999</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.149747861666647</v>
+        <v>8.139491253263802</v>
       </c>
       <c r="C6" t="n">
-        <v>17.44066200901814</v>
+        <v>19.19810086254255</v>
       </c>
       <c r="D6" t="n">
-        <v>90.61</v>
+        <v>135.86</v>
       </c>
       <c r="E6" t="n">
-        <v>1.112291542329438</v>
+        <v>1.851112252887053</v>
       </c>
       <c r="F6" t="n">
-        <v>4.027820018750276</v>
+        <v>2.76391230628188</v>
       </c>
       <c r="G6" t="n">
-        <v>262.12</v>
+        <v>49.31</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.401</v>
+        <v>0.373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.313</v>
+        <v>0.328</v>
       </c>
       <c r="D4" t="n">
-        <v>-21.95</v>
+        <v>-12.06</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.466</v>
+        <v>0.372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.396</v>
+        <v>0.367</v>
       </c>
       <c r="D5" t="n">
-        <v>-15.02</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.195</v>
+        <v>0.277</v>
       </c>
       <c r="C6" t="n">
-        <v>0.178</v>
+        <v>0.273</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.720000000000001</v>
+        <v>-1.44</v>
       </c>
     </row>
   </sheetData>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.254836343461648</v>
+        <v>2.190493565401994</v>
       </c>
       <c r="C4" t="n">
-        <v>1.993254939210601</v>
+        <v>1.914343497541267</v>
       </c>
       <c r="D4" t="n">
-        <v>-11.6</v>
+        <v>-12.61</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4320123756877457</v>
+        <v>0.3044707449148347</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3985886054378469</v>
+        <v>0.3035246139799939</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.74</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.563</v>
+        <v>39.773</v>
       </c>
       <c r="C5" t="n">
-        <v>10.657</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-74.95999999999999</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.139491253263802</v>
+        <v>9.57789524480666</v>
       </c>
       <c r="C6" t="n">
-        <v>19.19810086254255</v>
+        <v>18.4853834612759</v>
       </c>
       <c r="D6" t="n">
-        <v>135.86</v>
+        <v>93</v>
       </c>
       <c r="E6" t="n">
-        <v>1.851112252887053</v>
+        <v>1.053517426996589</v>
       </c>
       <c r="F6" t="n">
-        <v>2.76391230628188</v>
+        <v>3.207948544883879</v>
       </c>
       <c r="G6" t="n">
-        <v>49.31</v>
+        <v>204.5</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
+++ b/results/ResNet18/Imagenette/low-rank_quant-static_pruning_quant-dynamic/2_pruning_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
